--- a/Multipliers/Comparison_Table.xlsx
+++ b/Multipliers/Comparison_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\HDL\Verilog\Multipliers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A30B6CB-4EBE-45FD-A24D-8E1E64F3A04F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611E660-C535-4608-BACD-CB1D411AB2A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{C7DBFF16-D97A-4865-AE38-9BEC318EB59D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
   <si>
     <t>S.No.</t>
   </si>
@@ -280,6 +280,78 @@
   </si>
   <si>
     <t>14.876W</t>
+  </si>
+  <si>
+    <t>Booth Multiplier 4 Bit</t>
+  </si>
+  <si>
+    <t>Booth Multiplier 8 Bit</t>
+  </si>
+  <si>
+    <t>1/3 ns-1</t>
+  </si>
+  <si>
+    <t>1/4 ns-1</t>
+  </si>
+  <si>
+    <t>1/5 ns-1</t>
+  </si>
+  <si>
+    <t>1/6 ns-1</t>
+  </si>
+  <si>
+    <t>1/7 ns-1</t>
+  </si>
+  <si>
+    <t>0.630ns</t>
+  </si>
+  <si>
+    <t>0.115W</t>
+  </si>
+  <si>
+    <t>0.071ns</t>
+  </si>
+  <si>
+    <t>0.116W</t>
+  </si>
+  <si>
+    <t>1.071ns</t>
+  </si>
+  <si>
+    <t>2.071ns</t>
+  </si>
+  <si>
+    <t>3.071ns</t>
+  </si>
+  <si>
+    <t>4.071ns</t>
+  </si>
+  <si>
+    <t>0.113W</t>
+  </si>
+  <si>
+    <t>1.463ns</t>
+  </si>
+  <si>
+    <t>0.112W</t>
+  </si>
+  <si>
+    <t>2.376ns</t>
+  </si>
+  <si>
+    <t>0.111W</t>
+  </si>
+  <si>
+    <t>0.110W</t>
+  </si>
+  <si>
+    <t>3.194ns</t>
+  </si>
+  <si>
+    <t>0.109W</t>
+  </si>
+  <si>
+    <t>4.194ns</t>
   </si>
 </sst>
 </file>
@@ -621,6 +693,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,58 +744,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE26955-3D6F-4BA4-9B45-DB3B64345FD4}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,70 +1088,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="I1" s="5" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="I1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1088,16 +1160,16 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="17">
         <v>1</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="J3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5">
         <v>94</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -1106,16 +1178,16 @@
       <c r="M3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1124,12 +1196,12 @@
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="F4" s="23"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="6">
         <v>94</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1138,16 +1210,16 @@
       <c r="M4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1156,16 +1228,16 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="17">
         <v>2</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="J5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5">
         <v>94</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1174,16 +1246,16 @@
       <c r="M5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1192,12 +1264,12 @@
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="F6" s="25"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="6">
         <v>93</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1206,16 +1278,16 @@
       <c r="M6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="17">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1224,16 +1296,16 @@
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="17">
         <v>3</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="J7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="5">
         <v>94</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1242,16 +1314,16 @@
       <c r="M7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6">
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1260,12 +1332,12 @@
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="F8" s="25"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="6">
         <v>93</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -1274,16 +1346,16 @@
       <c r="M8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1292,16 +1364,16 @@
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="17">
         <v>4</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="J9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="5">
         <v>94</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1310,16 +1382,16 @@
       <c r="M9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="A10" s="17"/>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1328,12 +1400,12 @@
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="F10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="6">
         <v>93</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -1342,16 +1414,16 @@
       <c r="M10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
         <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1360,16 +1432,16 @@
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="17">
         <v>5</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="J11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="5">
         <v>94</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1378,16 +1450,16 @@
       <c r="M11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="A12" s="18"/>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1396,12 +1468,12 @@
       <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="F12" s="16"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="6">
         <v>93</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -1410,73 +1482,73 @@
       <c r="M12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="I15" s="5" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="I15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="17">
         <v>1</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5">
         <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1485,16 +1557,16 @@
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="17">
         <v>1</v>
       </c>
-      <c r="J17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="J17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="5">
         <v>106</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -1503,16 +1575,16 @@
       <c r="M17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="A18" s="17"/>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6">
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1521,12 +1593,12 @@
       <c r="E18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="9">
+      <c r="F18" s="23"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="6">
         <v>107</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -1535,16 +1607,16 @@
       <c r="M18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="18"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="17">
         <v>2</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5">
         <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1553,16 +1625,16 @@
       <c r="E19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="17">
         <v>2</v>
       </c>
-      <c r="J19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="8">
+      <c r="J19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="5">
         <v>106</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -1571,16 +1643,16 @@
       <c r="M19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6">
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1589,12 +1661,12 @@
       <c r="E20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="F20" s="25"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="6">
         <v>106</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -1603,16 +1675,16 @@
       <c r="M20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="21"/>
+      <c r="N20" s="25"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="17">
         <v>3</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5">
         <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1621,16 +1693,16 @@
       <c r="E21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="17">
         <v>3</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="8">
+      <c r="J21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="5">
         <v>106</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -1639,16 +1711,16 @@
       <c r="M21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="A22" s="17"/>
+      <c r="B22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6">
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1657,12 +1729,12 @@
       <c r="E22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="F22" s="25"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="6">
         <v>106</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -1671,16 +1743,16 @@
       <c r="M22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="21"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="17">
         <v>4</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="B23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1689,16 +1761,16 @@
       <c r="E23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="17">
         <v>4</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="8">
+      <c r="J23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="5">
         <v>106</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -1707,16 +1779,16 @@
       <c r="M23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="A24" s="17"/>
+      <c r="B24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6">
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1725,12 +1797,12 @@
       <c r="E24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="F24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="6">
         <v>106</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -1739,16 +1811,16 @@
       <c r="M24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="17">
         <v>5</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1757,16 +1829,16 @@
       <c r="E25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="17">
         <v>5</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="8">
+      <c r="J25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="5">
         <v>106</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -1775,16 +1847,16 @@
       <c r="M25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6">
         <v>22</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1793,12 +1865,12 @@
       <c r="E26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="F26" s="16"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="6">
         <v>106</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -1807,20 +1879,384 @@
       <c r="M26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="I29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>1</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="17">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>2</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="17">
+        <v>2</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>3</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="17">
+        <v>3</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="25"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>4</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="17">
+        <v>4</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>5</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="17">
+        <v>5</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6">
+        <v>13</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="N19:N20"/>
+  <mergeCells count="66">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="I23:I24"/>
@@ -1830,31 +2266,16 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
